--- a/Datasheets and Information/GTEM ATM90E26 Registers.xlsx
+++ b/Datasheets and Information/GTEM ATM90E26 Registers.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Design\DataSheets\Energy Solar Wind PV\Energy Power Monitoring ATM90E Series\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6277E4-5430-43A0-A6E1-8C7BF40FAB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8012F9C-0EB9-4377-AF8F-F373B9E2C259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="30960" windowHeight="17070" xr2:uid="{0BA93E5E-867B-4E32-ACFE-4C6B2124380C}"/>
+    <workbookView xWindow="59400" yWindow="-120" windowWidth="30960" windowHeight="17070" xr2:uid="{0BA93E5E-867B-4E32-ACFE-4C6B2124380C}"/>
   </bookViews>
   <sheets>
     <sheet name="ATM90E26 Registers" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'ATM90E26 Registers'!$A$1:$H$54</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'ATM90E26 Registers'!$A$1:$G$54</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,112 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Dave Williams</author>
-  </authors>
-  <commentList>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{E33CB49B-0D54-4318-9D1B-02356FBF88A8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dave Williams:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-CAL START</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{621AE81F-C346-4F0D-B408-8128F7A69B80}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dave Williams:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-RUNNING</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{6AB1166D-73B7-436D-9D77-61B63CC0AABC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dave Williams:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-CAL START</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{6B6FD74D-7C79-483B-8B6E-B73D4D6273D0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dave Williams:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-RUNNING</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -142,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="202">
   <si>
     <t>SoftReset</t>
   </si>
@@ -150,9 +44,6 @@
     <t xml:space="preserve"> W </t>
   </si>
   <si>
-    <t>Software Reset</t>
-  </si>
-  <si>
     <t>01H</t>
   </si>
   <si>
@@ -225,9 +116,6 @@
     <t xml:space="preserve">CalStart </t>
   </si>
   <si>
-    <t>Calibration Start Command</t>
-  </si>
-  <si>
     <t>21H</t>
   </si>
   <si>
@@ -330,9 +218,6 @@
     <t xml:space="preserve">CS1 </t>
   </si>
   <si>
-    <t>Checksum 1</t>
-  </si>
-  <si>
     <t>Measurement Calibration Register</t>
   </si>
   <si>
@@ -439,9 +324,6 @@
   </si>
   <si>
     <t xml:space="preserve">CS2 </t>
-  </si>
-  <si>
-    <t>Checksum 2</t>
   </si>
   <si>
     <t>Energy Register</t>
@@ -709,22 +591,6 @@
 EnergyIC Values</t>
   </si>
   <si>
-    <t>Alternative
-EnergyIC Values</t>
-  </si>
-  <si>
-    <t>0x5678</t>
-  </si>
-  <si>
-    <t>0x8765</t>
-  </si>
-  <si>
-    <t>0x00B9</t>
-  </si>
-  <si>
-    <t>0xC1F3</t>
-  </si>
-  <si>
     <t>0x0000</t>
   </si>
   <si>
@@ -739,13 +605,55 @@
   <si>
     <t>Example
 H Value</t>
+  </si>
+  <si>
+    <t>0x5678 / 0x8765</t>
+  </si>
+  <si>
+    <t>Calibration Start Command. 0x8765 = Running</t>
+  </si>
+  <si>
+    <t>0x1D39</t>
+  </si>
+  <si>
+    <t>0xA07E</t>
+  </si>
+  <si>
+    <t>0x7A13</t>
+  </si>
+  <si>
+    <t>0xAE70</t>
+  </si>
+  <si>
+    <t>0xF250</t>
+  </si>
+  <si>
+    <t>Checksum 1 (Use Auto Calculate)</t>
+  </si>
+  <si>
+    <t>Checksum 2 (Use Auto Calculate)</t>
+  </si>
+  <si>
+    <t>Software Reset 0x789A</t>
+  </si>
+  <si>
+    <t>0x0030</t>
+  </si>
+  <si>
+    <t>0x17DD</t>
+  </si>
+  <si>
+    <t>0x05CD /0x00B9</t>
+  </si>
+  <si>
+    <t>0xBB1C / 0xC1F3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,19 +673,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -967,7 +862,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1106,41 +1001,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1384,12 +1244,11 @@
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{2CD307F1-556C-49DF-843A-1774F84F3C9B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
-    <queryTableFields count="8">
+    <queryTableFields count="7">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
       <queryTableField id="10" dataBound="0" tableColumnId="5"/>
-      <queryTableField id="11" dataBound="0" tableColumnId="10"/>
       <queryTableField id="8" dataBound="0" tableColumnId="8"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
@@ -1402,14 +1261,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF30BB33-4F1E-4DE5-BEAA-BA618C388D3D}" name="Document1" displayName="Document1" ref="A1:H54" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H54" xr:uid="{CF30BB33-4F1E-4DE5-BEAA-BA618C388D3D}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{985DEF81-0227-426E-BC20-08277C88B05A}" uniqueName="1" name="Register_x000a_Address" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{59FBBE1D-5F73-4D80-8FED-FA08F5EEC6F0}" uniqueName="2" name="Register_x000a_Name" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{A8A26D6E-B88F-41EA-A298-BF86C3BFB50D}" uniqueName="6" name="Definition" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9A4046E9-C9AF-49F7-9814-9E188B2932C0}" uniqueName="5" name="Default_x000a_EnergyIC Values" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{835D16F7-E42A-4D9F-9613-E936B6FC60DA}" uniqueName="10" name="Alternative_x000a_EnergyIC Values" queryTableFieldId="11" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF30BB33-4F1E-4DE5-BEAA-BA618C388D3D}" name="Document1" displayName="Document1" ref="A1:G54" tableType="queryTable" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G54" xr:uid="{CF30BB33-4F1E-4DE5-BEAA-BA618C388D3D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G54">
+    <sortCondition ref="B1:B54"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{985DEF81-0227-426E-BC20-08277C88B05A}" uniqueName="1" name="Register_x000a_Address" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{59FBBE1D-5F73-4D80-8FED-FA08F5EEC6F0}" uniqueName="2" name="Register_x000a_Name" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A8A26D6E-B88F-41EA-A298-BF86C3BFB50D}" uniqueName="6" name="Definition" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{9A4046E9-C9AF-49F7-9814-9E188B2932C0}" uniqueName="5" name="Default_x000a_EnergyIC Values" queryTableFieldId="10" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{1028E2BD-445D-40D1-986D-C777E8FEEBE7}" uniqueName="8" name="Example_x000a_H Value" queryTableFieldId="8" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{7500195A-1B5E-4D22-ADA2-A3FE22ABD005}" uniqueName="3" name="Read/Write_x000a_Type" queryTableFieldId="3" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{2885459E-FE84-4B69-8864-B5BA63B3339E}" uniqueName="4" name="Functional Description" queryTableFieldId="4" dataDxfId="0"/>
@@ -1714,13 +1575,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C122AF1-C7E3-47F3-8C61-CA00B3ED9ADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C122AF1-C7E3-47F3-8C61-CA00B3ED9ADB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,1244 +1590,1194 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="B50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="G50" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C51" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="G51" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="G54" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
